--- a/Result/MT_ALL_Parallel_10.xlsx
+++ b/Result/MT_ALL_Parallel_10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="12090"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="MT_ALL_Parallel_10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>SCHED_Type</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>CPU Usage</t>
-  </si>
-  <si>
-    <t>Fairness</t>
   </si>
   <si>
     <t>Context Switch</t>
@@ -93,6 +90,18 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Fairness(QWT)</t>
+  </si>
+  <si>
+    <t>Fairness(RT)</t>
+  </si>
+  <si>
+    <t>Fairness(ET)</t>
+  </si>
+  <si>
+    <t>Elapsed Time</t>
+  </si>
 </sst>
 </file>
 
@@ -102,14 +111,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +126,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -125,7 +134,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +142,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,35 +150,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +186,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,14 +194,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -200,14 +209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +224,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,14 +232,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -920,20 +929,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -960,24 +978,33 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,14 +1035,18 @@
         <f>F2</f>
         <v>2.76</v>
       </c>
-      <c r="O2">
+      <c r="K2">
+        <f>(E2-$D$57)/100</f>
+        <v>2.76</v>
+      </c>
+      <c r="R2">
         <f>H2</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1043,17 +1074,21 @@
         <v>2.76</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J56" si="1">F3</f>
+        <f t="shared" ref="J3:J55" si="1">F3</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O11" si="2">H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K56" si="2">(E3-$D$57)/100</f>
+        <v>12.96</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="3">H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1084,14 +1119,18 @@
         <f t="shared" si="1"/>
         <v>19.190000000000001</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>32.15</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1122,14 +1161,18 @@
         <f t="shared" si="1"/>
         <v>5.32</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>37.47</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1160,14 +1203,18 @@
         <f t="shared" si="1"/>
         <v>2.66</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>40.130000000000003</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1198,14 +1245,18 @@
         <f t="shared" si="1"/>
         <v>2.68</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>42.81</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1236,14 +1287,18 @@
         <f t="shared" si="1"/>
         <v>2.58</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>45.39</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1274,14 +1329,18 @@
         <f t="shared" si="1"/>
         <v>2.67</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>48.06</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1312,14 +1371,18 @@
         <f t="shared" si="1"/>
         <v>2.68</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>50.74</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1350,14 +1413,18 @@
         <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>53.39</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <f>MIN(D2:D11)</f>
@@ -1367,26 +1434,34 @@
         <f>MAX(E2:E11)</f>
         <v>1718660860</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>(E12-D57)/100</f>
         <v>53.39</v>
       </c>
-      <c r="L12">
-        <f>100/K12</f>
+      <c r="M12">
+        <f>100/L12</f>
         <v>1.8730099269526128</v>
       </c>
-      <c r="N12">
+      <c r="O12">
+        <f>_xlfn.STDEV.P(I2:I11)</f>
+        <v>17.992022704521023</v>
+      </c>
+      <c r="P12">
         <f>_xlfn.STDEV.P(F2:F11)</f>
         <v>5.1518452034198399</v>
       </c>
-      <c r="O12">
-        <f>AVERAGE(O2:O11)</f>
+      <c r="Q12">
+        <f>_xlfn.STDEV.P(K2:K11)</f>
+        <v>15.703557049280269</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGE(R2:R11)</f>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1417,14 +1492,18 @@
         <f t="shared" si="1"/>
         <v>26.32</v>
       </c>
-      <c r="O13">
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>79.709999999999994</v>
+      </c>
+      <c r="R13">
         <f>H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1455,14 +1534,18 @@
         <f t="shared" si="1"/>
         <v>26.25</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O22" si="3">H14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>79.739999999999995</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R22" si="4">H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1493,14 +1576,18 @@
         <f t="shared" si="1"/>
         <v>26.17</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>79.760000000000005</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1531,14 +1618,18 @@
         <f t="shared" si="1"/>
         <v>26.05</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>79.790000000000006</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1569,14 +1660,18 @@
         <f t="shared" si="1"/>
         <v>25.99</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>79.83</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1607,14 +1702,18 @@
         <f t="shared" si="1"/>
         <v>25.91</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>79.849999999999994</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1645,14 +1744,18 @@
         <f t="shared" si="1"/>
         <v>25.3</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>79.34</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1683,14 +1786,18 @@
         <f t="shared" si="1"/>
         <v>25.74</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>79.88</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1721,14 +1828,18 @@
         <f t="shared" si="1"/>
         <v>25.29</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>79.53</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1759,14 +1870,18 @@
         <f t="shared" si="1"/>
         <v>25.55</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>79.89</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <f>MIN(D13:D22)</f>
@@ -1776,26 +1891,34 @@
         <f>MAX(E13:E22)</f>
         <v>1718663510</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>(E23-$D$57)/100</f>
         <v>79.89</v>
       </c>
-      <c r="L23">
-        <f>100/K23</f>
+      <c r="M23">
+        <f>100/L23</f>
         <v>1.251721116535236</v>
       </c>
-      <c r="N23">
+      <c r="O23">
+        <f>_xlfn.STDEV.P(I13:I22)</f>
+        <v>0.30581857366746046</v>
+      </c>
+      <c r="P23">
         <f>_xlfn.STDEV.P(F13:F22)</f>
         <v>0.35555730902345423</v>
       </c>
-      <c r="O23">
-        <f>AVERAGE(O13:O22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f>_xlfn.STDEV.P(K13:K22)</f>
+        <v>0.16418282492392292</v>
+      </c>
+      <c r="R23">
+        <f>AVERAGE(R13:R22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1826,14 +1949,18 @@
         <f t="shared" si="1"/>
         <v>125.49</v>
       </c>
-      <c r="O24">
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>132.16</v>
+      </c>
+      <c r="R24">
         <f>H24</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1864,14 +1991,18 @@
         <f t="shared" si="1"/>
         <v>125.64</v>
       </c>
-      <c r="O25">
-        <f t="shared" ref="O25:O33" si="4">H25</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>132.30000000000001</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R33" si="5">H25</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1902,14 +2033,18 @@
         <f t="shared" si="1"/>
         <v>125.54</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>132.19</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1940,14 +2075,18 @@
         <f t="shared" si="1"/>
         <v>125.62</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>132.25</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1978,14 +2117,18 @@
         <f t="shared" si="1"/>
         <v>126.66</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>132.11000000000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2016,14 +2159,18 @@
         <f t="shared" si="1"/>
         <v>129.59</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>132.19</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2054,14 +2201,18 @@
         <f t="shared" si="1"/>
         <v>130.59</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>132.22</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2092,14 +2243,18 @@
         <f t="shared" si="1"/>
         <v>130.37</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>132.01</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -2130,14 +2285,18 @@
         <f t="shared" si="1"/>
         <v>130.35</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>131.99</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -2168,14 +2327,18 @@
         <f t="shared" si="1"/>
         <v>130.49</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>132.13999999999999</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <f>MIN(D24:D33)</f>
@@ -2185,26 +2348,34 @@
         <f>MAX(E24:E33)</f>
         <v>1718668751</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f>(E34-$D$57)/100</f>
         <v>132.30000000000001</v>
       </c>
-      <c r="L34">
-        <f>100/K34</f>
+      <c r="M34">
+        <f>100/L34</f>
         <v>0.7558578987150415</v>
       </c>
-      <c r="N34">
+      <c r="O34">
+        <f>_xlfn.STDEV.P(I24:I33)</f>
+        <v>2.3310117974819424</v>
+      </c>
+      <c r="P34">
         <f>_xlfn.STDEV.P(F24:F33)</f>
         <v>2.2791542290946447</v>
       </c>
-      <c r="O34">
-        <f>AVERAGE(O24:O33)</f>
+      <c r="Q34">
+        <f>_xlfn.STDEV.P(K24:K33)</f>
+        <v>9.3402355430685799E-2</v>
+      </c>
+      <c r="R34">
+        <f>AVERAGE(R24:R33)</f>
         <v>9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2235,14 +2406,18 @@
         <f t="shared" si="1"/>
         <v>30.43</v>
       </c>
-      <c r="O35">
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>35.89</v>
+      </c>
+      <c r="R35">
         <f>H35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2273,14 +2448,18 @@
         <f t="shared" si="1"/>
         <v>30.42</v>
       </c>
-      <c r="O36">
-        <f t="shared" ref="O36:O44" si="5">H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>32.07</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:R44" si="6">H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2311,14 +2490,18 @@
         <f t="shared" si="1"/>
         <v>30.45</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2349,14 +2532,18 @@
         <f t="shared" si="1"/>
         <v>30.46</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>34.01</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2387,14 +2574,18 @@
         <f t="shared" si="1"/>
         <v>30.46</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>36.03</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2425,14 +2616,18 @@
         <f t="shared" si="1"/>
         <v>30.46</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>34.11</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2463,14 +2658,18 @@
         <f t="shared" si="1"/>
         <v>30.51</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>35.01</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -2501,14 +2700,18 @@
         <f t="shared" si="1"/>
         <v>30.43</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>35.04</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -2539,14 +2742,18 @@
         <f t="shared" si="1"/>
         <v>30.45</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>36.119999999999997</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -2577,14 +2784,18 @@
         <f t="shared" si="1"/>
         <v>30.43</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>36.840000000000003</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <f>MIN(D35:D44)</f>
@@ -2594,26 +2805,34 @@
         <f>MAX(E35:E44)</f>
         <v>1718659205</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f>(E45-$D$57)/100</f>
         <v>36.840000000000003</v>
       </c>
-      <c r="L45">
-        <f>100/K45</f>
+      <c r="M45">
+        <f>100/L45</f>
         <v>2.7144408251900107</v>
       </c>
-      <c r="N45">
+      <c r="O45">
+        <f>_xlfn.STDEV.P(I35:I44)</f>
+        <v>1.4239455748026324</v>
+      </c>
+      <c r="P45">
         <f>_xlfn.STDEV.P(F35:F44)</f>
         <v>2.4494897427832129E-2</v>
       </c>
-      <c r="O45">
-        <f>AVERAGE(O35:O44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f>_xlfn.STDEV.P(K35:K44)</f>
+        <v>1.4254616795971762</v>
+      </c>
+      <c r="R45">
+        <f>AVERAGE(R35:R44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2644,14 +2863,18 @@
         <f t="shared" si="1"/>
         <v>125.3</v>
       </c>
-      <c r="O46">
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>131.91</v>
+      </c>
+      <c r="R46">
         <f>H46</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2682,14 +2905,18 @@
         <f t="shared" si="1"/>
         <v>125.53</v>
       </c>
-      <c r="O47">
-        <f t="shared" ref="O47:O55" si="6">H47</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>132.15</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:R55" si="7">H47</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2720,14 +2947,18 @@
         <f t="shared" si="1"/>
         <v>125.42</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>132.04</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2758,14 +2989,18 @@
         <f t="shared" si="1"/>
         <v>125.27</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>131.88999999999999</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -2796,14 +3031,18 @@
         <f t="shared" si="1"/>
         <v>125.58</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>132.21</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2834,14 +3073,18 @@
         <f t="shared" si="1"/>
         <v>125.59</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>132.22</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2872,14 +3115,18 @@
         <f t="shared" si="1"/>
         <v>125.62</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>132.26</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -2910,14 +3157,18 @@
         <f t="shared" si="1"/>
         <v>125.61</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>132.25</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -2948,14 +3199,18 @@
         <f t="shared" si="1"/>
         <v>124.95</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>131.6</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -2986,14 +3241,18 @@
         <f t="shared" si="1"/>
         <v>125.52</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>132.16999999999999</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <f>MIN(D46:D55)</f>
@@ -3003,32 +3262,40 @@
         <f>MAX(E46:E55)</f>
         <v>1718668747</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f>(E56-$D$57)/100</f>
         <v>132.26</v>
       </c>
-      <c r="L56">
-        <f>100/K56</f>
+      <c r="M56">
+        <f>100/L56</f>
         <v>0.75608649629517621</v>
       </c>
-      <c r="N56">
+      <c r="O56">
+        <f>_xlfn.STDEV.P(I46:I55)</f>
+        <v>1.2999999999999982E-2</v>
+      </c>
+      <c r="P56">
         <f>_xlfn.STDEV.P(F46:F55)</f>
         <v>0.20171514568817109</v>
       </c>
-      <c r="O56">
-        <f>AVERAGE(O46:O55)</f>
+      <c r="Q56">
+        <f>_xlfn.STDEV.P(K46:K55)</f>
+        <v>0.20169283576766148</v>
+      </c>
+      <c r="R56">
+        <f>AVERAGE(R46:R55)</f>
         <v>9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57">
         <f>MIN(D2:D55)</f>
         <v>1718655521</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>132.30000000000001</v>
       </c>
     </row>

--- a/Result/MT_ALL_Parallel_10.xlsx
+++ b/Result/MT_ALL_Parallel_10.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MT_ALL_Parallel_10" sheetId="1" r:id="rId1"/>
+    <sheet name="Parallel_Result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>SCHED_Type</t>
   </si>
@@ -931,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q56" activeCellId="2" sqref="L56 M56 Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1079,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K56" si="2">(E3-$D$57)/100</f>
+        <f t="shared" ref="K3:K55" si="2">(E3-$D$57)/100</f>
         <v>12.96</v>
       </c>
       <c r="R3">
@@ -3297,6 +3298,106 @@
       </c>
       <c r="L57">
         <v>132.30000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>53.39</v>
+      </c>
+      <c r="C2">
+        <v>79.89</v>
+      </c>
+      <c r="D2">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="E2">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="F2">
+        <v>132.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1.8730099269526128</v>
+      </c>
+      <c r="C3">
+        <v>1.251721116535236</v>
+      </c>
+      <c r="D3">
+        <v>0.7558578987150415</v>
+      </c>
+      <c r="E3">
+        <v>2.7144408251900107</v>
+      </c>
+      <c r="F3">
+        <v>0.75608649629517621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>1/15.7035570492803</f>
+        <v>6.3679839979046679E-2</v>
+      </c>
+      <c r="C4">
+        <f>1/0.164182824923923</f>
+        <v>6.0907710685534102</v>
+      </c>
+      <c r="D4">
+        <f>1/0.0934023554306858</f>
+        <v>10.706368114475479</v>
+      </c>
+      <c r="E4">
+        <f>1/1.42546167959718</f>
+        <v>0.70152710122841688</v>
+      </c>
+      <c r="F4">
+        <f>1/0.201692835767661</f>
+        <v>4.9580343109060392</v>
       </c>
     </row>
   </sheetData>
